--- a/data/hotels_by_city/Dallas/Dallas_shard_392.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_392.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="858">
   <si>
     <t>STR#</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>This hotel is very nice.  The service and facilities are both great.  The room was in excellent condition, very clean and fresh.  The pool area was clean and very nice and the location is great with many good restaurants within walking distance.   l would definitely recommend.More</t>
+  </si>
+  <si>
+    <t>podrozniczka60</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r579930269-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
@@ -251,6 +254,9 @@
     <t>This hotel is a great location and the rooms are nice and quite. Lots of food places you can walk to for dinner. The staff is very friendly here and the breakfast area is well stocked. The workout facility is nice for a hotel too.More</t>
   </si>
   <si>
+    <t>carolynbK6084ST</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r583575841-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -275,6 +281,9 @@
     <t>This hotel is fairly new.  The hotel was very clean, rooms were fresh, beds very comfortable, and the staff is very nice, polite, and accommodating. The breakfast was good for continental. This hotel is centrally located to a lot of restaurants and the mall.More</t>
   </si>
   <si>
+    <t>senhorbendavis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r583503710-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -293,6 +302,9 @@
     <t>Home2 Suites by Hilton Addison is in a very good location close to some me of the best shopping and restaurants around feted in Addison. The staff was very friendly and attentive and the entire facility was clean and well kept. The accommodations were comfortable, bed was reasonably soft, and room was very spacious and nicely furnished. I felt very much at home during my weeklong stay and was made to feel welcome by every staff member upon my arrival and at my departure. Pool, fitness center and laundry facilities were more than satisfactory, clean and well maintained. Breakfast was unremarkable, standard fare of waffles, fruit, breakfast breads, cereals, yogurts, fruit juice, coffee, tea, etc. No complaints really, just seemed lacking in quality compared to the overall higher quality of the place. Would definitely recommend staying here!More</t>
   </si>
   <si>
+    <t>bmccrary06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r570994512-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -323,6 +335,9 @@
     <t>Overall my experience was great. I took off one star because i got there and they have given away the room i originally booked because someone extended their stay. I had no emails or calls warning me about this. I come expecting one thing then enter my room and surprise and dissapoint show up. I got that room specifically for my husbands birthday, so the whole night i feel bad and am constantly apologizing to him for them not giving us our room. We had plans to have a few friends iver after dinner to visit and we felt crowded with not enough room to sit. Had we know before hand we would have told our friends to come the next night when we did get our correct room our we may have checked into another hotel which we almost did. More</t>
   </si>
   <si>
+    <t>Kristi J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r570920482-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -341,6 +356,9 @@
     <t>Its hard having a family of five (2 adults and 3 teens) to find an affordable room that accommodates us all, so we were very pleased to see the size of our room. The rooms were clean, fast and friendly check in, loved the location (restaurants, sports bars, and a comedy club across the street). Only complaint is the wifi dropped a few times and we had to keep logging back in. Will definitely be going back!More</t>
   </si>
   <si>
+    <t>jennhelferstay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r569732501-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -383,6 +401,9 @@
     <t>There a several OK hotels in the Addison area, but they typically show their age. This one's new, with clean, modern rooms, a better free breakfast, good free WiFi speed and digital keys and check-in.  Rooms are bigger than usual, with full fridge, cooktop, microwave and dishes. I'm in Addison about every quarter, and this is my hotel. Has a pool, only missing a hot tub...More</t>
   </si>
   <si>
+    <t>Ira R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r568698262-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -398,6 +419,9 @@
     <t>An Excellent stay. Loved the breakfast. Fresh hot oatmeal. Whole Wheat English Muffins and Buckwheat waffles. Service was perfect. Very comfortable spacious rooms. Modern workout room. Excellent, friendly customer service. Great DirecTV channel selectionMore</t>
   </si>
   <si>
+    <t>Aftin M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r566630424-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -422,6 +446,9 @@
     <t>We had a lovely stay at Home2. The rooms are wonderful and the staff is amazing. They went out of their way to make our trip comfortable and enjoyable. Alberto was super helpful and so friendly. It truly is a home away from home.More</t>
   </si>
   <si>
+    <t>Eric H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r564475953-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -446,6 +473,9 @@
     <t>Great staff, great place, everyone was friendly, rooms very clean, rooms are large, breakfast was always hot, plenty to pick from. Very bright lighting in parking area and throughout the hotel, Cost was reasonable, parking was easy, location was easy to get to. More</t>
   </si>
   <si>
+    <t>Msantiago101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r559644969-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -476,6 +506,9 @@
     <t>This hotel is nice and located in a nice busy area. When you stay at this hotel make sure not to "sneeze" as the person staying next door may call the front desk complaining you are making noise. Apparently the walls are extremely thin. My friends and I were getting ready to go to an event, we were talking and laughing, all of the sudden we get a call from the front desk asking us to tone it down because our lovely neighbor complained. Good thing we didn't have music nor the tv on, we would have been kicked out for too much noise. Ridiculous!More</t>
   </si>
   <si>
+    <t>Kathy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r556936560-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -503,6 +536,9 @@
     <t>Our grandson's wrestling team was staying in this hotel, so we stayed here too and were so pleased with the facility. It is clean, SO comfortable and the staff is very friendly. Our room had everything you would need for a one night or week stay. The bed was extremely comfy and the bedding first class. The kitchen was fully equipped and lacked nothing. The breakfast was super good with a nice variety to choose from. This was our first stay at Home2Suites, but will surely not be our last!  We highly recommend this hotel...it's a great value for the price!!More</t>
   </si>
   <si>
+    <t>W8790JPkevinp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r555977701-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -527,6 +563,9 @@
     <t>Great hotel with friendly and helpful staff. Rooms have a large channel selection for television. The hotel is within walking distance of several restaurants. This location is great for longer stays than one or two nights due to the room amenities. More</t>
   </si>
   <si>
+    <t>brentl571</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r555503558-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -545,6 +584,9 @@
     <t>We were looking for a hotel for our family that included two kids under the age of 6...so we needed a little more space than traditional.  The room size was great, service was top notch, room was clean and updated and breakfast was excellent!  Highly recommend!More</t>
   </si>
   <si>
+    <t>4fam4beach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r555501057-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -560,6 +602,9 @@
     <t>Needed to stay away from the flu at home and booked here since it is close to my office.  Home2 was as advertised. clean, simple, and efficient.  Hotel will be a year old in February. Design of lobby and rooms is utilitarian and functional. Rooms are large,  with a clean and organized kitchenette.  Overall, it was perfect property for what I needed. More</t>
   </si>
   <si>
+    <t>Leonard G R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r555246876-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -578,6 +623,9 @@
     <t>This hotel is centrally located.  100's of retail and restaurant locations all within walking distance.  The hotel is newer and is incredibly clean.  The staff is very accommodating and the rooms are always spotless.  This is my go to hotel whenever visiting Dallas.  More</t>
   </si>
   <si>
+    <t>Stuart D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r553838483-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -602,6 +650,9 @@
     <t>Located in central Addison and walking distance to several decent restaurants. Spacious room with full size fridge and decent kitchen with microwave and dishwasher. Directv was nice as that is what I have so easy to find channels unlike most hotels that have satellite from 1970s staff were friendly. I didn’t try breakfast as there is a Starbucks nearby. Will stay there again. More</t>
   </si>
   <si>
+    <t>509brettm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r553212576-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -620,6 +671,9 @@
     <t>Great place to stay and great value for the money.  Clean hotel and clean rooms.  Very new hotel - opened in February, I actually thought it was newer than that.  Friendly and helpful staff, willing to help get ice when needed.  Breakfast is always decent at Home2.  More</t>
   </si>
   <si>
+    <t>Callitlikeyouseeit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r552813138-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -650,6 +704,9 @@
     <t>This is a new hotel that checks all the boxes. The staff was super friendly. The grounds and common areas were well kept. The room was perfect. I enjoyed the breakfast. It is very convenient to a number of very good restaurants. I will certainly stay here again when passing thru the area. More</t>
   </si>
   <si>
+    <t>LifeAtlasTravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r552752034-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -665,6 +722,9 @@
     <t>This hotel has been open about a year, it is very clean, has great employees and the rooms are great.  Loved having a large fridge and lots of space in the room.  Breakfast is great, love the layout of the buffet and the breakfast sandwiches are so good.  The pool is open year round, but it was a bit too cool for a dip.  The shuttle service within a 3 mile radius was great, but many places are within walking distance. I would highly recommend this hotel.  The only downside I had was that the showerhead was pretty high and I'm pretty short so switching the pressure from rainfall to more pressure couldn't be done.More</t>
   </si>
   <si>
+    <t>Roy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r551654718-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -689,6 +749,9 @@
     <t>Enjoyed the room stay. With a digital key access, free internet,beautiful color scheme. Enjoyed the location that made several nice restaurant available. Beautiful pool and patio. The hotel was easily accessible. More</t>
   </si>
   <si>
+    <t>Andrea R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r551491192-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -704,6 +767,9 @@
     <t>I have stayed at this hotel numerous times and once again my expectations were met. The cleanliness and location of this hotel is very convenient and hotel staff is always friendly and helpful. I would highly recommend hotel. More</t>
   </si>
   <si>
+    <t>jarveer2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r551400733-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -722,6 +788,9 @@
     <t>I arrived very late to the hotel. Prior to my arrival I checked in online and called the hotel to inform them that I would arrive around 2am. When I arrived at the hotel, the agent informed me that they had cancelled my reservation. I had my two month old baby with me and it was freezing cold. I asked the agent if he mind if I sat in the lobby while I found a way to make another reservation. He told me that since it was after midnight I would have to handle it outside. It was not until I began to cry hysterically that he allowed me to stay in. He was not very helpful and it took me begging him for him to reinstate my reservation as I could not afford the regular price of the room. It was the day after Christmas and I was devastated that me and my baby were in this predicament. Coming from someone who works in hospitality, I was very disappointed in this type of service at a Hilton property. I will have to reconsider where I stay next time. I did not even receive anything being a Silver HH member. Hilton is a better company than what this agent displayed that night.  I will give credit where it is due. The room was very nice, clean and spacious. I loved everything about it. Also, the lady who checked me out...I arrived very late to the hotel. Prior to my arrival I checked in online and called the hotel to inform them that I would arrive around 2am. When I arrived at the hotel, the agent informed me that they had cancelled my reservation. I had my two month old baby with me and it was freezing cold. I asked the agent if he mind if I sat in the lobby while I found a way to make another reservation. He told me that since it was after midnight I would have to handle it outside. It was not until I began to cry hysterically that he allowed me to stay in. He was not very helpful and it took me begging him for him to reinstate my reservation as I could not afford the regular price of the room. It was the day after Christmas and I was devastated that me and my baby were in this predicament. Coming from someone who works in hospitality, I was very disappointed in this type of service at a Hilton property. I will have to reconsider where I stay next time. I did not even receive anything being a Silver HH member. Hilton is a better company than what this agent displayed that night.  I will give credit where it is due. The room was very nice, clean and spacious. I loved everything about it. Also, the lady who checked me out was extremely pleasant.More</t>
   </si>
   <si>
+    <t>nathang2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r550553992-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -746,6 +815,9 @@
     <t>This is a very new and modern hotel. It was very clean and the staff were extremely helpful and courteous. There are many restaurants and other things close to this location. I would definitely stay here again!More</t>
   </si>
   <si>
+    <t>brookej802</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r550258098-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -764,6 +836,9 @@
     <t>Everything was a 5 star from staff to room. I was there for business and they made sure everything was in order for me. I would recommend this hotel to my business partners as well as my family and friends.More</t>
   </si>
   <si>
+    <t>Derek J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r549841198-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -782,6 +857,9 @@
     <t>After a 12-hr drive from Atlanta we were checked in by Raeanna who was extremely friendly and helpful. She really made me feel at home and the room was perfect with all the plates and amenities you can ask for similar to your kitchen at home. I am now a fan of this brandMore</t>
   </si>
   <si>
+    <t>sogno_39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r549336344-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -806,6 +884,9 @@
     <t>Still new and fresh.Location is superb..There are many bars and restaurants near the hotel.But still quiet at night.Very well equipped kitchen, bedroom and bathroom. Would be back for sure.Breakfast was good as well.More</t>
   </si>
   <si>
+    <t>Dennis T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r549232833-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -824,6 +905,9 @@
     <t>Very nice hotel.  It was very clean and the staff was very friendly and helpful.  The complimentary breakfast was good and had a variety.  We would definitely stay here again if the need arises and we would recommend it to everyone.More</t>
   </si>
   <si>
+    <t>nicholec38</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r547732378-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -842,6 +926,9 @@
     <t>If you want to feel comfortable at a hotel I highly recommend this location. It feels more like a studio than a hotel room. The staff (check in clerks, drivers, cleaning staff) are all friendly, efficient, and helpful. It’s in a great location for finding somewhere to eat for dinner or lunch. If you want a restful night sleep, no hassle with finding places to eat, or transportation to where you need to be, this is the place to stay. More</t>
   </si>
   <si>
+    <t>Steven G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r546752879-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -866,6 +953,9 @@
     <t>Aside from the Hilton-wide Internet policy of 24 hour blocks of Internet Service - then you are cut off, the Home2 Suites brand is a great value. Newer hotels with lots of space in the rooms. Lots of drawers and shelves to stow your gear as well. They also have great oatmeal along with other good breakfast items. I did have trouble with Internet speed (premium) along with staying connected to the internet. Of course, as is true with all Hilton Properties, the Internet cuts you off after exactly 24 hours until you sign in again. This is very inconvenient when you are in the middle of something and you have to open your password manager to obtain your complex password. The pool uses salt for chlorination which is a plus though it was too cold to swim this time around.More</t>
   </si>
   <si>
+    <t>103terrisc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r545599651-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -890,6 +980,9 @@
     <t>Staff is welcoming. Rooms are appointed well and have always been very clean. I have stayed at this location many times over the last year. Would recommend for your next business stay. There are good resturants within walking distance.More</t>
   </si>
   <si>
+    <t>funUma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r544909872-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -917,6 +1010,9 @@
     <t>Wasn’t expecting it was going to be that nice for the price we paid. It was very clean and our room was always kept up. It had 2 queen beds and a little pull out couch. It was fully equipped with regular size stainless steel kitchen appliances, even had a dishwasher. Bathroom was also very nice &amp; modern looking. Free breakfast was a plus &amp; even free apples at the lobby everyday. It was a great place, very close to everything &amp; restaurants  like BJ’s &amp; Outback. It felt safe &amp; secure too.More</t>
   </si>
   <si>
+    <t>Karen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r544109233-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -941,6 +1037,9 @@
     <t>Just off Belt Line Road in Addison, this hotel is within walking distance to restaurants and shopping and only minutes away from the Galleria.  Approx  20 minutes from downtown Dallas. The rooms were clean and spacious, and the staff were helpful. More</t>
   </si>
   <si>
+    <t>Dan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r538646819-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -965,6 +1064,9 @@
     <t>..just an AWESOME hotel...!!!  I have strongly recommended this hotel chain to my company travel department, as have other reps that I work with...!!!!! Having stayed here at Home2 Suites, it has set a new standard for travel accommodations excellence....More</t>
   </si>
   <si>
+    <t>gotchyataylor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r538395827-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -989,6 +1091,9 @@
     <t>So there’s a difference between a Suite and Studio room- I paid for a SUITE and they put us in a STUDIO room. I went back to the front desk and the attendant said I was in a STUDIO SUITE- trying to play it off. WRONG!!! I know the difference in the rooms - do they think I’m that stupid?! The attendant told me that they gave me a suite at studio price? WHAT? That doesn’t even make sense- they gave me a STUDIO room! The attendant then said that they ran out of Suites because current guest continued their stay so they didn’t have enough rooms- never received an email or any type of notification! So the fact that I booked this room a month ago doesn’t matter apparently! Then the attendant said that there was nothing she could do about it. REALLY?! And that she couldn’t give me any money back because I booked through Expedia. RIDICULOUS! DONT BOOK A ROOM HERE- they will lie to your face, try to trick you, AND THEN rip you off! More</t>
   </si>
   <si>
+    <t>tracyr833</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r538359274-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1004,6 +1109,9 @@
     <t>Hotel has everything you would want - a full suite - luxury, full fridge, microwave, coffee/tea service - beautiful. Breakfast was good and staff was friendly.  Beautiful pool and patio. Would stay here again. More</t>
   </si>
   <si>
+    <t>V2475KCrobertc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r537030296-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1025,6 +1133,9 @@
     <t>Had an OUTSTANDING stay at the Home2Suites/Addison (Dallas)!  The staff, the location, the amenities (especially kitchen and fridge) were excellent!  Most notably, the front desk staff (both day and night crews) were extremely hospitable, friendly, helpful (suggestions for restaurants and 'tourist stuff') and sincere.More</t>
   </si>
   <si>
+    <t>billy372</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r536044311-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1073,6 +1184,9 @@
     <t>Very clean, nice sized rooms, probably one of the biggest and nicest pool/outdoor areas I've seen at a hotel recently. We will definitely make this our choice to stay each time we pass through this area. More</t>
   </si>
   <si>
+    <t>Judy F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r531452154-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1091,6 +1205,9 @@
     <t>This Hilton is in a lot behind a bunch of restaurants so not easy to spot, but it is very nice. Shuttle service is good, rooms are spacious, clean with comfy beds and kitchen. Lobby is great to meet people in or get some work done. Breakfast included is decent - waffles, toast, bagels, donuts, fruit, oatmeal and microwaveable sandwiches. Good coffee and tea 24 hours. More</t>
   </si>
   <si>
+    <t>Vincent B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r531583454-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1112,6 +1229,9 @@
     <t>This hotel is new and is kept up very well.  The staff is friendly and helpful.  The location is good, near many businesses.  The price for the Dallas area is great.  The hotel offers a good workout facility and pool. The room is very comfortable and has all the necessities for a long term stay.More</t>
   </si>
   <si>
+    <t>Foresakeme</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r531205276-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1157,6 +1277,9 @@
     <t>This is a new property located in Addison and is convenient to many restaurants and has easy access to major highways.  I stayed there because it was new and we'd had previous great experiences with the brand.  I'd recommend this property to business and leisure travelers alike.More</t>
   </si>
   <si>
+    <t>ShayBelle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r517757155-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1184,6 +1307,9 @@
     <t>What a great stay!  From the early check-in, to the great suite/room, to the wonderfully accommodating staff, to the comfy bed and pillows, to the better-than-average breakfast, to the easy checkout.   Very impressive!!  I highly recommend this property and would stay here again if I'm ever back in Dallas. More</t>
   </si>
   <si>
+    <t>Amy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r517176905-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1202,6 +1328,9 @@
     <t>Great location for restaurants and night life topped with friendly service. The suites are spacious and clean. I was extremely impressed with the complimentary self-serve breakfast options which stood out at easy and more unique than your standard hotel breakfast!More</t>
   </si>
   <si>
+    <t>AZsue_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r517160162-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1217,6 +1346,9 @@
     <t>Love the amenities in the room,refrigerator, real dishes, sink! Breakfast was good, and free. Good location, close to restaurants and shopping also. Had no issues. I appreciate their attention to being environmentally friendly.More</t>
   </si>
   <si>
+    <t>G6315LXcarolynl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r515066556-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1241,6 +1373,9 @@
     <t>I stayed for two nights and despite being a frequent business traveler, this was one of the noisiest hotels I've ever had the misfortune of staying at.  Things started off well - Kristen checked me in, and though frazzled by phone calls and a wandering co-worker, she did her best to ensure a smooth check-in.   That evening, however, as I was settling down into bed, I heard children running up and down the halls. I assumed they'd settle down to sleep soon, and I'd also be able to sleep. I didn't account for the fact that they'd wake in the middle of the night, whining and crying for water and to go to the pool - this work me up and I heard every word of it. It went on for well over thirty minutes. I can't even imagine being their poor parents. Early the next morning, I woke when they jumped up and down on their bed, shaking my hotel room walls. I spent the morning working from my hotel room, desperately wishing I had an office to escape to.   So in summary - if you get a room with no neighbors, this is a terrific business option. If you have neighbors, fingers crossed they're quietly cranky business travelers that won't wake you up late at night!More</t>
   </si>
   <si>
+    <t>kennethbI903AI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r514117581-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1259,6 +1394,9 @@
     <t>Did not honor the reservation charges quoted by hotel reservation staff, did not allow late checkout as a Hilton Honors member, charged 150.00 for one night for our small dog and 79.00 for the late check out.  Overall, bad staff attitude.  They would not let me talk with the reservation staff, I was really mad.More</t>
   </si>
   <si>
+    <t>T2763WOjohnm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r505342966-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1286,6 +1424,9 @@
     <t>I stayed for a week for a work trip.  The rooms are a really good size and they are extremely clean.  To be honest I was very surprised at how clean everything was as I travel a lot for work and I've seen some disgusting places.  The staff couldn't have been more helpful and the shuttle was a huge perk for me.More</t>
   </si>
   <si>
+    <t>W8690OAlaurens</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r502306836-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1310,6 +1451,9 @@
     <t>Stayed with my kids for 6 days, and every aspect was great!  Clean and spacious rooms, helpful and friendly staff, varied and healthy breakfast and pool appropriate for multiple aged kids. Will stay again! More</t>
   </si>
   <si>
+    <t>Krista A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r500600177-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1334,6 +1478,9 @@
     <t>It's a relatively new hotel and very nice. The pool is spacious and there are several covered places to sit on the patio. I travel frequently and it's one of the best hotels I've stayed at in a long time!More</t>
   </si>
   <si>
+    <t>690darlener</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r499307454-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1352,6 +1499,9 @@
     <t>Very clean, friendly, comfortable hotel.  Very inexpensive, especially for what you get.  Would definitely stay here again.  Fairly new hotel, great staff who will go above and beyond to help you out.  Rooms are large, beds comfortable.  Can't say enough good!!More</t>
   </si>
   <si>
+    <t>johncM503RA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r499037190-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1373,6 +1523,9 @@
     <t>I stay in Addison area often and for me this is the best combination of cleanliness, modern, convenient and affordable among many options in the area.  Facility is relatively new and it shows in both the common areas and the rooms.  Breakfast options are of quality but somewhat limited in variety, all self serve.More</t>
   </si>
   <si>
+    <t>Stacy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r498084047-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1391,6 +1544,9 @@
     <t>There is nothing bad to say about this hotel. In fact this was my favorite stay. We were just passing through Dallas and we decided we liked it so much we would just stay another night!!  We took the opportunity to use everything offered here. We cooked in the kitchen (they offer a stove), grilled at the pool, went swimming, did laundry. It was great!!  The location is great. Close to Whole Foods and local restaurants. But really, we loved the pool!!!  We took the baby swimming every day. He loved it. This hotel fulfilled all my needs. Clean, quiet, hot shower, comfy bed. This place is a yes, yes and yes. Run don't walk to stay here. If you have a choice of hotels don't think, just stay here. More</t>
   </si>
   <si>
+    <t>CHRISTOPHER W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r497777441-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1415,6 +1571,9 @@
     <t>There is no bar. How is this a 179 dollar room with no restaurant and or bar. Great staff and room was fabulous. But not worth the value paid. I would not recommend this hotel to anyone else. With that said the all areas of the hotel was clean and the staff is great.More</t>
   </si>
   <si>
+    <t>N6208HNamyt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r497532067-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1433,6 +1592,9 @@
     <t>This location was fantastic for us, visiting family in the Carrollton area. We were able to use the shuttle services to get to the dart train to go downtown, and to stock up on groceries at the Whole Foods. There are many restaurants nearby, and the saline pool was a favorite of the kids! More</t>
   </si>
   <si>
+    <t>V4095XRmichaelc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r497335550-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1451,6 +1613,9 @@
     <t>******** Exceptional facilities,.  Very close to several restaurants - all within walking distance.  Hotel was clean and offered complimentary breakfast.  Very warm and welcoming staff. Would highly recommend that travelers visiting Addison/Carrolton area consider staying at Home2Suites by Hilton.  Will definitely look to stay again during my next travels *******More</t>
   </si>
   <si>
+    <t>tyjuand2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r495934623-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1472,6 +1637,9 @@
     <t>This was an excellent choice. Really nice. Breakfast waa eaay and complete. Room was nice. Staff nice.  Love the full size refrigerator. Beds slept well. They leave you a chocolate bar thanking you. No complaints. More</t>
   </si>
   <si>
+    <t>Susan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r495927301-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1487,6 +1655,9 @@
     <t>Finally found a Dallas hotel we love. Beautiful lobby and wonderful front desk staff. Loved the room, beds and pillows very comfortable. Great shower. Very quiet hotel and nice clientele. So many awesome restaurants right there! Awesome location. This is our new go to place when in town. A great price too!More</t>
   </si>
   <si>
+    <t>796georgiaf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r494446508-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1502,6 +1673,9 @@
     <t>Front desk clerk was extremely rude and unwilling to help us. The Manager was no different. Terrible customer service. I wouldn't recommend booking at this  hotel if this is the first time booking a reservation and not aware of everything in regards to check in.</t>
   </si>
   <si>
+    <t>nessavargas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r492815989-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1532,6 +1706,9 @@
     <t>My stay was great, room was clean, location was good, food was ok, staff was very helpful, we will stay agree in the near future, i feel the cost was correct for the hotel and the size of the room. My kids enjoyed the pool area, it was very kid friendly and cleanMore</t>
   </si>
   <si>
+    <t>gerardos977</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r492913056-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1547,6 +1724,9 @@
     <t>The hotel and room were in great condition and the location was excellent. We were close to quiet but lively night life and there was a vast variety of restaurants within walking distance. Less than 2 blocks you have access to Tex-Mex, Asian, America, Brazilian, Middle Eastern, Italian and Pub style dining. Less than a mile radius you can add fine dining and fast food to that mix as well as several family entertainment venues.More</t>
   </si>
   <si>
+    <t>BalanceEngineering</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r490745399-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1565,6 +1745,9 @@
     <t>Everything was not perfect, but staff responded well to my concerns. Quickly. Essentially, the housekeeping staff showed a decreased attention to detail when overturning my room. My hilton honors account was not working and kept me from accessing premium internet service. More</t>
   </si>
   <si>
+    <t>davidjU1357VF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r490538615-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1592,6 +1775,9 @@
     <t>Our suite had all the conveniences of home. The suite was very clean, the staff was friendly and the bed was comfy. The free breakfast was OK. The coffee was good. I recommend this hotel and will definitely stay again.More</t>
   </si>
   <si>
+    <t>Thomas B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r490018074-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1610,6 +1796,9 @@
     <t>The Home2 Hotel is a great experience and you feel as if you are at home. The room was always cleaned and the breakfast was good. The staff was very helpful when I needed it. Great location and in the mist of good restaurants and all types of amenities.  Convenient to shopping and entertainment.More</t>
   </si>
   <si>
+    <t>cecileb508</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r489680475-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1628,6 +1817,9 @@
     <t>Trendy but reasonably priced. Our room overlooked the pool but very quiet. The kitchen was amazing.....full sized fridge and microwave! The free breakfast was outstanding!! Close to restaurants and excellent walking areas. More</t>
   </si>
   <si>
+    <t>MidwestOtter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r489520676-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1646,6 +1838,9 @@
     <t>Home2Suites in Addison, TX is a gem of a place to stay.  It's a new hotel -- recently opened in February, 2017 -- and everything is shiny and new.  The staff is outstanding and extremely helpful.  The room design is one of the best we've seen -- and is also an extended stay hotel which is a plus for anyone needing to stay in the North Dallas area.  Very easy to get to, and an easy on and off the highway.  Bedding is outstanding!  Fluffy soft pillows, comfortable mattress.  And they have chargers!  Many of them.  Around the room so you can be charged and ready to head out the next morning.  Highly recommend!More</t>
   </si>
   <si>
+    <t>connerr997</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r489271032-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1664,6 +1859,9 @@
     <t>Great hotel! My wife and I really enjoyed our stay here. We travel a lot and have stayed in every type of hotel. This one is by far one the best. Very clean and located right by tons of restaurants. Also the softest sheets in the world!More</t>
   </si>
   <si>
+    <t>Derek N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r488873740-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1682,6 +1880,9 @@
     <t>I stayed at this new (fall 2016) hotel seven times over the past eight weeks. Overall, this is one of my favorite hotels across the country (and I've stayed in many). Where to start? Modern, eco-friendly design (e.g., recycling throughout, soap &amp; shampoo dispensers in the shower, dual-flush toilets). Fun, bold design in the lobby and pool area (loved the firepit outdoor bar - too bad it's not an actual bar!). Firm, comfortable beds. Spacious studios and over-sized one BR suites. Plenty of restaurant options within an easy walk (across the parking lot or across the street) or short drive. Fair, attractive rates. But most of all, it was the caring, personal welcome I received each visit from Megan, Anna, and the rest of the impressive team at Home 2 Addison. Now that my project has wrapped up, I'll miss those guys! Thank you!More</t>
   </si>
   <si>
+    <t>Tina M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r488561914-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1700,6 +1901,9 @@
     <t>The hotel is in a great location as it is close to several restaurants (within walking distance).  Staff at the hotel were very friendly and they helped me arrange car transportation to and from the airport.  The hotel was also very clean, and the rooms were spacious.More</t>
   </si>
   <si>
+    <t>rebeccamS9571SE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r488101855-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1718,6 +1922,9 @@
     <t>This is a nice hotel. The staff is both professional and friendly. The rooms are clean and spacious. Good in room amenities. There is a nice fire pit and plenty of outdoor seating as well. It's a great location close to lots of resturants.More</t>
   </si>
   <si>
+    <t>141tourist</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r486738370-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1736,6 +1943,9 @@
     <t>This hotel was a pleasant surprise.  Large, well designed rooms, clean comfortable and quiet.  Hotel design made coming and going easy as well. Lobby, lounge area, pool area and outdoor patio were also well designed. For the price, this hotel exceeded my expectations.  The location could not be better. it was walking distance to at least five good restaurants and easy access to downtown Dallas and the northern suburbs. It is close to a small regional airport, so if the occasional airplane noise will bother you, it might not be the best choice for you, but any hotel in Addison will have that issue. Wasn't often and only noticed it outside on patio and by pool.More</t>
   </si>
   <si>
+    <t>amyfA2278EJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r484012673-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1760,6 +1970,9 @@
     <t>I travel to the Dallas/Addison area frequently for work. This was my first time staying at this property. I was extremely impressed with the cleanliness of the entire property, friendliness of the staff, and convenience of the amenities. It was also my first time using Digital Key. It was great not having to hunt for my room key after a long day. Also, the bed was very comfortable. I plan on researching where to buy the sheets.More</t>
   </si>
   <si>
+    <t>475jim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r482701172-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1784,6 +1997,9 @@
     <t>We just finished an 8-day stay in this new (February, 2017) hotel in Addison, TX.  Everything about the hotel was excellent.  The room (we had a two queen studio) was spacious, a really nice bathroom, and a great mini-kitchen with full-size refrigerator, microwave, dishwasher, and plenty of dishes/utensils.  Combined with the available cooking plate and gas grill out by the pool, you never have to eat anywhere else.  The lobby, pool, and pool patio were delightful.  We loved to sit outside and soak up the beautiful Texas sun.  Perhaps the best part was the very friendly/accommodating front desk staff (especially Anna). Great hotel!!!More</t>
   </si>
   <si>
+    <t>Delores B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r482493148-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1811,6 +2027,9 @@
     <t>Loved my stay....Staff were great and helpful. I loved my stay, staff gave great recommendations and assist when I had problems.  Loved how friendly staff were and how they continued to make my family and I welcome!More</t>
   </si>
   <si>
+    <t>230elyses</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r481674960-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1829,6 +2048,9 @@
     <t>The Home2 Hotel was almost like being at home. The staff was extremely attentive and very helpful. The room was spacious, clean, and comfortable. Next time I'm in Addison, I'll be staying at Home2. The complimentary shuttle for a 3 mile radius was very helpful and much appreciated.More</t>
   </si>
   <si>
+    <t>BizexecMi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r481630151-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1844,6 +2066,9 @@
     <t>Because this hotel is relatively new, the entire property including the foyer, the hallways, and the room were all in excellent condition.  The "suite" I had was actually one large room with a king bed near the window, followed by a sofa facing the TV, and then a bathroom with walk-in shower.  Internet, TV, sink, toilet, and shower all worked well, and plenty of power outlets for your devices.  Room had a refrigerator, microwave, and alarm clock, as well as glasses and plates.  USA Today available for free. Staff was friendly.  Minor downsides: refrigerator made a knocking sound fairly often, there is a strange floor to ceiling movable divider to give the impression that it is not all just one room, and the breakfast was OK (no egg person, you can microwave an egg sandwich).  Overall a nice place to stay in great condition.  I will stay here again.More</t>
   </si>
   <si>
+    <t>S7620UDevam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r474712268-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1868,6 +2093,9 @@
     <t>Room was so noisy it was difficult to sleep. There were kids running and jumping. In the hallway and rooms above and to the sides of us all the way until 1:00 in the morning. There was a note left in the room for someone that wasn't in the room. And when I complained they gave me a Starbucks gift card! More</t>
   </si>
   <si>
+    <t>ericy599</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r474872336-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1889,6 +2117,9 @@
     <t>Frequent traveler with a brief review. Positive experience. Recommended. Hotel opened late February 2017, so it's pretty new!  Stayed here while we were in town for a wedding. We had reserved one of the studio suites for 3 nights. It was an excellent value for the price paid.  Bedding was clean and comfortable.  Very good water pressure in the shower.  TV included HBO.  The kitchenette included barware, silverware, and china. It also included a microwave, upright fridge/freezer, dishwasher, and sink. Very serviceable for our stay.   Common areas are pretty nice. Workout Area also has the laundry machines in an adjacent nook, so it's a nice way for some folks to multitask. Pool was a saline pool and well maintained. The lobby tries to be more comfortable than anything else, and there's an outdoor heated seating area that is nice for just hanging outside with a beer and friends.  The hotel is also surrounded by restaurants: Ida Claire for southern dining, In N Out's were one mile in either direction, and literally everything else was a short drive away.  Target is also 1.5 miles away for anything else you might need to get.  Not that noisy. The hotel is a good 3/4 mile off the North Texas Tollway. Local airport nearby with the little planes flying by infrequently, but I tend to be a heavy sleeper.  We made some small requests and all of them were met promptly. Never got the...Frequent traveler with a brief review. Positive experience. Recommended. Hotel opened late February 2017, so it's pretty new!  Stayed here while we were in town for a wedding. We had reserved one of the studio suites for 3 nights. It was an excellent value for the price paid.  Bedding was clean and comfortable.  Very good water pressure in the shower.  TV included HBO.  The kitchenette included barware, silverware, and china. It also included a microwave, upright fridge/freezer, dishwasher, and sink. Very serviceable for our stay.   Common areas are pretty nice. Workout Area also has the laundry machines in an adjacent nook, so it's a nice way for some folks to multitask. Pool was a saline pool and well maintained. The lobby tries to be more comfortable than anything else, and there's an outdoor heated seating area that is nice for just hanging outside with a beer and friends.  The hotel is also surrounded by restaurants: Ida Claire for southern dining, In N Out's were one mile in either direction, and literally everything else was a short drive away.  Target is also 1.5 miles away for anything else you might need to get.  Not that noisy. The hotel is a good 3/4 mile off the North Texas Tollway. Local airport nearby with the little planes flying by infrequently, but I tend to be a heavy sleeper.  We made some small requests and all of them were met promptly. Never got the feeling from the staff that we were demanding or they were stressed.  Breakfast was comparable to a Hampton Inn or Holiday Inn Express. It had a waffle station and a variety of other things. Don't expect the breakfast from the Embassy Suites, but expect a reasonable one.  Was maybe 20 minutes to and fro Dallas Love.  Maybe 35 minutes to/fro DFW.More</t>
   </si>
   <si>
+    <t>Steve B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r473004745-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1931,6 +2162,9 @@
     <t>My overall experience was absolutely awesome. To top off the stay, when we departed we accidentally left some of our luggage sitting outside on the bench. The hotel staff noticed it had been out there for a couple of hours. They retrieved it, contacted us and made sure it was properly received. Words can't express our gratitude. This is an amazing property with an amazing staffMore</t>
   </si>
   <si>
+    <t>cld1104</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r472276611-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1955,6 +2189,9 @@
     <t>My stay at this hotel was excellent.  I would definitely stay here again.  There is shuttle service and there are also a lot of restaurants nearby that you can walk to.  The breakfast is limited but has all the basics.More</t>
   </si>
   <si>
+    <t>Okla_IC_nurse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r472067705-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1967,6 +2204,9 @@
     <t>Price was right and we came in LATE so a bed was really all we were looking for.  New hotel but they need to keep an eye on upkeep.  There was hair in the shower from last patron as well as a coffee pod left in the coffee machine.  It didn't make me too bent out of shape but isn't a good sign to attention to detail for a new hotel.  Otherwise my visit was acceptable.</t>
   </si>
   <si>
+    <t>lahrrh92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r472018234-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1985,6 +2225,9 @@
     <t>This is a great hotel close to several restaurants.  The rooms are very clean and well appointed.  Customer Service is great and the fitness facility has a wide variety of choices.  It is convenient to Dallas Love Field.More</t>
   </si>
   <si>
+    <t>541donaldr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r471556682-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2003,6 +2246,9 @@
     <t>I wanted a hotel within walking distance to restaurants and this totally fit the bill.  It was clean, new, and had everything I needed (and then some).  The breakfast was a pleasant surprise - lots of variety with healthy choices and non-stop attention from the staff.  I would have used the pool in warmer weather.  Overall well worth the value, with BJ's (brewhouse), On the Border (Mexican) and Outback all within the same parking lot and 30 other places within a 5 minute walk.More</t>
   </si>
   <si>
+    <t>Christine B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r471298155-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2027,6 +2273,9 @@
     <t>This was my first experience staying at a Home @ Suites and I was extremely happy with the entire stay. The rooms are well thought out, the bed was absolutely amazing and the staff has nailed "great customer service"More</t>
   </si>
   <si>
+    <t>185charityc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r471063012-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2066,6 +2315,9 @@
     <t>My family spent three nights at this hotel. It is brand new. I really like the concept of the Home2. Our room looked as if no one had ever stayed there. The staff was over the top friendly and helpful. The hotel van took us to a couple of great restaurants. There are dozens and dozens of restaurant options only a walk or van ride away. The kids enjoyed the pool. Breakfast was very good. We will be back. More</t>
   </si>
   <si>
+    <t>angelocE4764SF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r469980103-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2084,6 +2336,9 @@
     <t>We found this hotel to be a "home away from home" with almost everything you need to make your own meals and refrigerate them.  Internet was terrific and dishwasher was very helpful in cleaning up after in room meals.  All in all, a fantastic place to spend with your family.More</t>
   </si>
   <si>
+    <t>Judith S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r469238716-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2108,6 +2363,9 @@
     <t>Great value, great accommodations, clean rooms, great breakfast. Spacious rooms, comfortable beds, staff was friendly, hotel is at a great location, lots of food choices around. Area looks calm, quite. More</t>
   </si>
   <si>
+    <t>shandik2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r469200513-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2123,6 +2381,9 @@
     <t>Ready to go back with the rest of my family in the near future. They made us feel welcome and was willing to accommodate any of our needs. The rooms were very clean. The beds were extremely comfortable. More</t>
   </si>
   <si>
+    <t>807lanir</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r469176868-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2135,6 +2396,9 @@
     <t>Upon arrival to check in at another hotel with my reservation number they told me my reservation was canceled. They were very unprofessional and had no rooms. We drove down the road found this hotel they immediately accommodated us. They told us that it was a blessing in the disguise.  They stated that the other hotel was not clean and we would be happier here anyway. This hotel is brand-new clean and all of the employees are extremely friendly and helpful. A breath of fresh air.More</t>
   </si>
   <si>
+    <t>Charles H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r468982429-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2153,6 +2417,9 @@
     <t>My sister and I were celebrating our mom's 70th birthday.  We picked this hotel because of the location and the value for the price. The room was very spacious and bright. I love the lamps on the wall.More</t>
   </si>
   <si>
+    <t>HotelCriti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r468533180-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2189,6 +2456,9 @@
     <t>I really enjoyed my stay. The rooms where beautiful. The Addison location is perfect. It's surrounded by the best restaurants and bars... Breakfast was also an asset to my stay not to mention the rock burning patio located by the poolMore</t>
   </si>
   <si>
+    <t>mz_wash627</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r467967946-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2207,6 +2477,9 @@
     <t>Home 2 Suites is my choice in hotels.  This location lived up to my expectations and more!  It's wonderful to enjoy your stay without having to worry about cleanliness or a bad atmosphere.  This place is superb!!! I'll stay again and again.More</t>
   </si>
   <si>
+    <t>ericacM5133UN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r467273266-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2255,6 +2528,9 @@
     <t>Great stay. Good location.The rooms are big and very nice. The only thing I have a question with is did they forget to put a cooktop in the units. The colors are very BOLD in the lobby and rooms. Just a little hard to find but lots to do close.More</t>
   </si>
   <si>
+    <t>T5878UNpp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r463854537-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2279,6 +2555,9 @@
     <t>I travel to DFW often for business and happened to need a couple of extra rooms for colleagues. My usual hotel couldn't accommodate so sort of stumbled into this one. New hotel, only a couple of weeks into being open. Staff super friendly. Room, halls and gym all impeccably clean. Walkable to several restaurants. Low traffic noise. A little noisy in the mornings with other guests getting ready, alarm clocks going off etc. More</t>
   </si>
   <si>
+    <t>Z2424RQveronicac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r463383565-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2298,6 +2577,9 @@
   </si>
   <si>
     <t>I can't say enough on the customer service. Hotel was extremely clean. Fitness room was in excellent NEW  conditions. The only down side was that I was unsatisfied with the breakfast buffet. Not much selection. Was looking for more of a hot breakfast.More</t>
+  </si>
+  <si>
+    <t>IBHAPPY</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d11667447-r463082343-Home2_Suites_by_Hilton_Dallas_Addison-Addison_Texas.html</t>
@@ -2891,8 +3173,12 @@
       <c r="A3" t="n">
         <v>65370</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>156374</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
@@ -2900,7 +3186,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -2909,25 +3195,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2939,13 +3225,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -2961,7 +3247,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2970,22 +3256,22 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
@@ -3006,21 +3292,25 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65370</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>156375</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
@@ -3028,7 +3318,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -3037,25 +3327,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -3077,21 +3367,25 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65370</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>156376</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
@@ -3099,7 +3393,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -3108,22 +3402,22 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
@@ -3148,21 +3442,25 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65370</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>156377</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
@@ -3170,7 +3468,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -3179,25 +3477,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3219,21 +3517,25 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65370</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>99895</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
@@ -3241,7 +3543,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -3250,25 +3552,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3290,21 +3592,25 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="X8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65370</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>156378</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
@@ -3312,7 +3618,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -3321,22 +3627,22 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
@@ -3361,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="X9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
@@ -3383,7 +3689,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -3392,22 +3698,22 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
@@ -3432,21 +3738,25 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65370</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>156379</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
@@ -3454,7 +3764,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -3463,25 +3773,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3503,21 +3813,25 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="X11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65370</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>156380</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
@@ -3525,7 +3839,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -3534,25 +3848,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3564,21 +3878,25 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="X12" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65370</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
@@ -3586,7 +3904,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -3595,25 +3913,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3625,21 +3943,25 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="X13" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65370</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>156381</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
@@ -3647,7 +3969,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -3656,25 +3978,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3686,21 +4008,25 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="X14" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65370</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>2597</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
@@ -3708,7 +4034,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -3717,25 +4043,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3757,21 +4083,25 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="X15" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65370</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>156382</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
@@ -3779,7 +4109,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3788,22 +4118,22 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
@@ -3828,21 +4158,25 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="X16" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Y16" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65370</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>156383</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
@@ -3850,7 +4184,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3859,25 +4193,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3899,21 +4233,25 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="X17" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65370</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>156384</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
@@ -3921,7 +4259,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3930,22 +4268,22 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="O18" t="s">
         <v>53</v>
@@ -3960,21 +4298,25 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="X18" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Y18" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65370</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>156385</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
@@ -3982,7 +4324,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3991,25 +4333,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="O19" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -4031,21 +4373,25 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="X19" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65370</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>49221</v>
+      </c>
+      <c r="C20" t="s">
+        <v>199</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
@@ -4053,7 +4399,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -4062,22 +4408,22 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="O20" t="s">
         <v>53</v>
@@ -4102,21 +4448,25 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="X20" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65370</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>156386</v>
+      </c>
+      <c r="C21" t="s">
+        <v>208</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
@@ -4124,7 +4474,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -4133,25 +4483,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="O21" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -4173,21 +4523,25 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="X21" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="Y21" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65370</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>109303</v>
+      </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
@@ -4195,7 +4549,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -4204,25 +4558,25 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="J22" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4234,21 +4588,25 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="X22" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65370</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>156387</v>
+      </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
@@ -4256,7 +4614,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -4265,25 +4623,25 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="O23" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4299,21 +4657,25 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="X23" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65370</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>12752</v>
+      </c>
+      <c r="C24" t="s">
+        <v>232</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
@@ -4321,7 +4683,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -4330,25 +4692,25 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O24" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4370,21 +4732,25 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="X24" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="Y24" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65370</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>7921</v>
+      </c>
+      <c r="C25" t="s">
+        <v>241</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
@@ -4392,7 +4758,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -4401,25 +4767,25 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O25" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4441,21 +4807,25 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="X25" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="Y25" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65370</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>156388</v>
+      </c>
+      <c r="C26" t="s">
+        <v>247</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
@@ -4463,7 +4833,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -4472,25 +4842,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="K26" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -4514,15 +4884,19 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65370</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>156389</v>
+      </c>
+      <c r="C27" t="s">
+        <v>254</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
@@ -4530,7 +4904,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -4539,25 +4913,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="J27" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4579,21 +4953,25 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="X27" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="Y27" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65370</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>156390</v>
+      </c>
+      <c r="C28" t="s">
+        <v>263</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
@@ -4601,7 +4979,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -4610,22 +4988,22 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="J28" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
@@ -4650,21 +5028,25 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="X28" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="Y28" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65370</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>73580</v>
+      </c>
+      <c r="C29" t="s">
+        <v>270</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
@@ -4672,7 +5054,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -4681,25 +5063,25 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O29" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4711,21 +5093,25 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="X29" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="Y29" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65370</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>51308</v>
+      </c>
+      <c r="C30" t="s">
+        <v>277</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
@@ -4733,7 +5119,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -4742,25 +5128,25 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4772,21 +5158,25 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="X30" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="Y30" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65370</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>32268</v>
+      </c>
+      <c r="C31" t="s">
+        <v>286</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
@@ -4794,7 +5184,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4803,25 +5193,25 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="J31" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O31" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4843,21 +5233,25 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="X31" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="Y31" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65370</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>156391</v>
+      </c>
+      <c r="C32" t="s">
+        <v>293</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
@@ -4865,7 +5259,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4874,22 +5268,22 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="J32" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O32" t="s">
         <v>53</v>
@@ -4914,21 +5308,25 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="X32" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="Y32" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65370</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>8283</v>
+      </c>
+      <c r="C33" t="s">
+        <v>300</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
@@ -4936,7 +5334,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4945,22 +5343,22 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="J33" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O33" t="s">
         <v>53</v>
@@ -4985,21 +5383,25 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="X33" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="Y33" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>65370</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>156392</v>
+      </c>
+      <c r="C34" t="s">
+        <v>309</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
@@ -5007,7 +5409,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -5016,22 +5418,22 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="J34" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="K34" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O34" t="s">
         <v>53</v>
@@ -5056,21 +5458,25 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="X34" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="Y34" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>65370</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>156393</v>
+      </c>
+      <c r="C35" t="s">
+        <v>318</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
@@ -5078,7 +5484,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -5087,25 +5493,25 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="J35" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="K35" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5117,21 +5523,25 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="X35" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="Y35" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>65370</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>6548</v>
+      </c>
+      <c r="C36" t="s">
+        <v>328</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
@@ -5139,7 +5549,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -5148,25 +5558,25 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="J36" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="K36" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5188,21 +5598,25 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="X36" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="Y36" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>65370</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>4365</v>
+      </c>
+      <c r="C37" t="s">
+        <v>337</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
@@ -5210,7 +5624,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -5219,22 +5633,22 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="J37" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="K37" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="O37" t="s">
         <v>53</v>
@@ -5259,21 +5673,25 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="X37" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="Y37" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>65370</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>156394</v>
+      </c>
+      <c r="C38" t="s">
+        <v>346</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
@@ -5281,7 +5699,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -5290,25 +5708,25 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="J38" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="K38" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="O38" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5320,21 +5738,25 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="X38" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="Y38" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>65370</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>156395</v>
+      </c>
+      <c r="C39" t="s">
+        <v>355</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
@@ -5342,7 +5764,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -5351,22 +5773,22 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="K39" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s">
+        <v>359</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
         <v>324</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s">
-        <v>293</v>
       </c>
       <c r="O39" t="s">
         <v>53</v>
@@ -5391,21 +5813,25 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="X39" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="Y39" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>65370</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>156396</v>
+      </c>
+      <c r="C40" t="s">
+        <v>361</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
@@ -5413,7 +5839,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -5422,22 +5848,22 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="J40" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="K40" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="O40" t="s">
         <v>53</v>
@@ -5462,21 +5888,25 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="X40" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="Y40" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>65370</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>156397</v>
+      </c>
+      <c r="C41" t="s">
+        <v>369</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
@@ -5484,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -5493,22 +5923,22 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="J41" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="K41" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="L41" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="O41" t="s">
         <v>53</v>
@@ -5533,13 +5963,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="X41" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="Y41" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42">
@@ -5555,7 +5985,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -5564,25 +5994,25 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="J42" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="K42" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5604,21 +6034,25 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="X42" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="Y42" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>65370</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>14251</v>
+      </c>
+      <c r="C43" t="s">
+        <v>386</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
@@ -5626,7 +6060,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -5635,22 +6069,22 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="J43" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="K43" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="L43" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="O43" t="s">
         <v>53</v>
@@ -5675,21 +6109,25 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="X43" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="Y43" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>65370</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>156398</v>
+      </c>
+      <c r="C44" t="s">
+        <v>393</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
@@ -5697,7 +6135,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -5706,22 +6144,22 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="J44" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="K44" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="L44" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="O44" t="s">
         <v>53</v>
@@ -5746,21 +6184,25 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="X44" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="Y44" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>65370</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>156399</v>
+      </c>
+      <c r="C45" t="s">
+        <v>401</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
@@ -5768,7 +6210,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -5777,22 +6219,22 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="J45" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="K45" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="L45" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="O45" t="s">
         <v>53</v>
@@ -5817,13 +6259,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="X45" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="Y45" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46">
@@ -5839,7 +6281,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5848,25 +6290,25 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="J46" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="K46" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="L46" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="O46" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5888,21 +6330,25 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="X46" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="Y46" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>65370</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>156400</v>
+      </c>
+      <c r="C47" t="s">
+        <v>417</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
@@ -5910,7 +6356,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5919,25 +6365,25 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="J47" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="K47" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="L47" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5949,21 +6395,25 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="X47" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="Y47" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>65370</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>10393</v>
+      </c>
+      <c r="C48" t="s">
+        <v>427</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
@@ -5971,7 +6421,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5980,22 +6430,22 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="J48" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="K48" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="L48" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="O48" t="s">
         <v>53</v>
@@ -6020,21 +6470,25 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="X48" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="Y48" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>65370</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>156401</v>
+      </c>
+      <c r="C49" t="s">
+        <v>434</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
@@ -6042,7 +6496,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -6051,25 +6505,25 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="J49" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="K49" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="L49" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="O49" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -6091,21 +6545,25 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="X49" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="Y49" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>65370</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>156402</v>
+      </c>
+      <c r="C50" t="s">
+        <v>440</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
@@ -6113,7 +6571,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -6122,22 +6580,22 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="J50" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="K50" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="L50" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="O50" t="s">
         <v>53</v>
@@ -6162,21 +6620,25 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="X50" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="Y50" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>65370</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>156403</v>
+      </c>
+      <c r="C51" t="s">
+        <v>449</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
@@ -6184,7 +6646,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -6193,25 +6655,25 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="J51" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="K51" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="L51" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -6233,21 +6695,25 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="X51" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="Y51" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>65370</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>156404</v>
+      </c>
+      <c r="C52" t="s">
+        <v>456</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
@@ -6255,7 +6721,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -6264,22 +6730,22 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="J52" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="K52" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="L52" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="O52" t="s">
         <v>53</v>
@@ -6304,21 +6770,25 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="X52" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="Y52" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>65370</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>156405</v>
+      </c>
+      <c r="C53" t="s">
+        <v>466</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
@@ -6326,7 +6796,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -6335,25 +6805,25 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="J53" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="K53" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="L53" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6375,21 +6845,25 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="X53" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="Y53" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>65370</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>156406</v>
+      </c>
+      <c r="C54" t="s">
+        <v>475</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
@@ -6397,7 +6871,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -6406,25 +6880,25 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="J54" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="K54" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="L54" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6444,21 +6918,25 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="X54" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="Y54" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>65370</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>156407</v>
+      </c>
+      <c r="C55" t="s">
+        <v>484</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
@@ -6466,7 +6944,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -6475,25 +6953,25 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="J55" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="K55" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="L55" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6515,21 +6993,25 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="X55" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="Y55" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>65370</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>156408</v>
+      </c>
+      <c r="C56" t="s">
+        <v>491</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
@@ -6537,7 +7019,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -6546,22 +7028,22 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="J56" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="K56" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="L56" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="O56" t="s">
         <v>53</v>
@@ -6586,21 +7068,25 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="X56" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="Y56" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>65370</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>61813</v>
+      </c>
+      <c r="C57" t="s">
+        <v>499</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
@@ -6608,7 +7094,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -6617,16 +7103,16 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="J57" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="K57" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="L57" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -6643,21 +7129,25 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="X57" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="Y57" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>65370</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>72881</v>
+      </c>
+      <c r="C58" t="s">
+        <v>506</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
@@ -6665,7 +7155,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -6674,22 +7164,22 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="J58" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="K58" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="L58" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="O58" t="s">
         <v>53</v>
@@ -6714,21 +7204,25 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="X58" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="Y58" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>65370</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>156409</v>
+      </c>
+      <c r="C59" t="s">
+        <v>515</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
@@ -6736,7 +7230,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -6745,25 +7239,25 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="J59" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="K59" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="L59" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="O59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6785,21 +7279,25 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="X59" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="Y59" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>65370</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>156410</v>
+      </c>
+      <c r="C60" t="s">
+        <v>522</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
@@ -6807,7 +7305,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -6816,22 +7314,22 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="J60" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="K60" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="L60" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="O60" t="s">
         <v>53</v>
@@ -6856,21 +7354,25 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="X60" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="Y60" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>65370</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>156411</v>
+      </c>
+      <c r="C61" t="s">
+        <v>529</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
@@ -6878,7 +7380,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6887,22 +7389,22 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="J61" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="K61" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="L61" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="O61" t="s">
         <v>53</v>
@@ -6927,21 +7429,25 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="X61" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="Y61" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>65370</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>1783</v>
+      </c>
+      <c r="C62" t="s">
+        <v>537</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
@@ -6949,7 +7455,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6958,25 +7464,25 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="J62" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="K62" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="L62" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="O62" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6988,21 +7494,25 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="X62" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="Y62" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>65370</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>156412</v>
+      </c>
+      <c r="C63" t="s">
+        <v>543</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
@@ -7010,7 +7520,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -7019,25 +7529,25 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="J63" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="K63" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="L63" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="O63" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -7061,15 +7571,19 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>65370</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>156413</v>
+      </c>
+      <c r="C64" t="s">
+        <v>549</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
@@ -7077,7 +7591,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -7086,25 +7600,25 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="J64" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="K64" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L64" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="O64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7126,21 +7640,25 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="X64" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="Y64" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>65370</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
@@ -7148,7 +7666,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -7157,25 +7675,25 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="J65" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="K65" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="L65" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -7197,21 +7715,25 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="X65" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="Y65" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>65370</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>156414</v>
+      </c>
+      <c r="C66" t="s">
+        <v>560</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
@@ -7219,7 +7741,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -7228,22 +7750,22 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="J66" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="K66" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="L66" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="O66" t="s">
         <v>53</v>
@@ -7268,21 +7790,25 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="X66" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="Y66" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>65370</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>156415</v>
+      </c>
+      <c r="C67" t="s">
+        <v>566</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
@@ -7290,7 +7816,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -7299,22 +7825,22 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>508</v>
+        <v>568</v>
       </c>
       <c r="J67" t="s">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="K67" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="L67" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="O67" t="s">
         <v>53</v>
@@ -7339,21 +7865,25 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="X67" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="Y67" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>65370</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>156416</v>
+      </c>
+      <c r="C68" t="s">
+        <v>573</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
@@ -7361,7 +7891,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -7370,25 +7900,25 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="J68" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
       <c r="K68" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="L68" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="O68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7410,21 +7940,25 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="X68" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="Y68" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>65370</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>2253</v>
+      </c>
+      <c r="C69" t="s">
+        <v>583</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
@@ -7432,7 +7966,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -7441,25 +7975,25 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="J69" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
       <c r="K69" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="L69" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="O69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7481,21 +8015,25 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="X69" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="Y69" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>65370</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>156417</v>
+      </c>
+      <c r="C70" t="s">
+        <v>590</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
@@ -7503,7 +8041,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>528</v>
+        <v>591</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -7512,25 +8050,25 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
       <c r="J70" t="s">
-        <v>530</v>
+        <v>593</v>
       </c>
       <c r="K70" t="s">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="L70" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="O70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7552,21 +8090,25 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="X70" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="Y70" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>65370</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>156418</v>
+      </c>
+      <c r="C71" t="s">
+        <v>597</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
@@ -7574,7 +8116,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>534</v>
+        <v>598</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -7583,25 +8125,25 @@
         <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>535</v>
+        <v>599</v>
       </c>
       <c r="J71" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="K71" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="L71" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="O71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7623,21 +8165,25 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="X71" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="Y71" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>65370</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>156419</v>
+      </c>
+      <c r="C72" t="s">
+        <v>604</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
@@ -7645,7 +8191,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>540</v>
+        <v>605</v>
       </c>
       <c r="G72" t="s">
         <v>46</v>
@@ -7654,25 +8200,25 @@
         <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="J72" t="s">
-        <v>542</v>
+        <v>607</v>
       </c>
       <c r="K72" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
       <c r="L72" t="s">
-        <v>544</v>
+        <v>609</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="O72" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7694,21 +8240,25 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="X72" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="Y72" t="s">
-        <v>545</v>
+        <v>610</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>65370</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>156420</v>
+      </c>
+      <c r="C73" t="s">
+        <v>611</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
@@ -7716,7 +8266,7 @@
         <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
@@ -7725,22 +8275,22 @@
         <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>547</v>
+        <v>613</v>
       </c>
       <c r="J73" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="K73" t="s">
-        <v>549</v>
+        <v>615</v>
       </c>
       <c r="L73" t="s">
-        <v>550</v>
+        <v>616</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="O73" t="s">
         <v>53</v>
@@ -7761,21 +8311,25 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="X73" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="Y73" t="s">
-        <v>551</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>65370</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>10054</v>
+      </c>
+      <c r="C74" t="s">
+        <v>618</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
@@ -7783,7 +8337,7 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>552</v>
+        <v>619</v>
       </c>
       <c r="G74" t="s">
         <v>46</v>
@@ -7792,22 +8346,22 @@
         <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="J74" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="K74" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
       <c r="L74" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="O74" t="s">
         <v>53</v>
@@ -7832,21 +8386,25 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="X74" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="Y74" t="s">
-        <v>557</v>
+        <v>624</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>65370</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>156421</v>
+      </c>
+      <c r="C75" t="s">
+        <v>625</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
@@ -7854,7 +8412,7 @@
         <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>558</v>
+        <v>626</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -7863,22 +8421,22 @@
         <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>559</v>
+        <v>627</v>
       </c>
       <c r="J75" t="s">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="K75" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="L75" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="O75" t="s">
         <v>53</v>
@@ -7903,21 +8461,25 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="X75" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="Y75" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>65370</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>156422</v>
+      </c>
+      <c r="C76" t="s">
+        <v>632</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
@@ -7925,7 +8487,7 @@
         <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>564</v>
+        <v>633</v>
       </c>
       <c r="G76" t="s">
         <v>46</v>
@@ -7934,22 +8496,22 @@
         <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>565</v>
+        <v>634</v>
       </c>
       <c r="J76" t="s">
-        <v>566</v>
+        <v>635</v>
       </c>
       <c r="K76" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="L76" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="O76" t="s">
         <v>53</v>
@@ -7974,21 +8536,25 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="X76" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="Y76" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>65370</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>156423</v>
+      </c>
+      <c r="C77" t="s">
+        <v>639</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
@@ -7996,7 +8562,7 @@
         <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>570</v>
+        <v>640</v>
       </c>
       <c r="G77" t="s">
         <v>46</v>
@@ -8005,22 +8571,22 @@
         <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>571</v>
+        <v>641</v>
       </c>
       <c r="J77" t="s">
-        <v>572</v>
+        <v>642</v>
       </c>
       <c r="K77" t="s">
-        <v>573</v>
+        <v>643</v>
       </c>
       <c r="L77" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="O77" t="s">
         <v>53</v>
@@ -8045,21 +8611,25 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="X77" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="Y77" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>65370</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>156424</v>
+      </c>
+      <c r="C78" t="s">
+        <v>648</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
@@ -8067,7 +8637,7 @@
         <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>578</v>
+        <v>649</v>
       </c>
       <c r="G78" t="s">
         <v>46</v>
@@ -8076,25 +8646,25 @@
         <v>47</v>
       </c>
       <c r="I78" t="s">
+        <v>650</v>
+      </c>
+      <c r="J78" t="s">
+        <v>651</v>
+      </c>
+      <c r="K78" t="s">
+        <v>652</v>
+      </c>
+      <c r="L78" t="s">
+        <v>653</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
         <v>579</v>
       </c>
-      <c r="J78" t="s">
-        <v>580</v>
-      </c>
-      <c r="K78" t="s">
-        <v>581</v>
-      </c>
-      <c r="L78" t="s">
-        <v>582</v>
-      </c>
-      <c r="M78" t="n">
-        <v>5</v>
-      </c>
-      <c r="N78" t="s">
-        <v>518</v>
-      </c>
       <c r="O78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -8110,21 +8680,25 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>583</v>
+        <v>654</v>
       </c>
       <c r="X78" t="s">
-        <v>584</v>
+        <v>655</v>
       </c>
       <c r="Y78" t="s">
-        <v>585</v>
+        <v>656</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>65370</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>84440</v>
+      </c>
+      <c r="C79" t="s">
+        <v>657</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
@@ -8132,7 +8706,7 @@
         <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>586</v>
+        <v>658</v>
       </c>
       <c r="G79" t="s">
         <v>46</v>
@@ -8141,25 +8715,25 @@
         <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="J79" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="K79" t="s">
-        <v>589</v>
+        <v>661</v>
       </c>
       <c r="L79" t="s">
-        <v>590</v>
+        <v>662</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="O79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8181,21 +8755,25 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="X79" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="Y79" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>65370</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>156425</v>
+      </c>
+      <c r="C80" t="s">
+        <v>667</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
@@ -8203,7 +8781,7 @@
         <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>595</v>
+        <v>668</v>
       </c>
       <c r="G80" t="s">
         <v>46</v>
@@ -8212,22 +8790,22 @@
         <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>596</v>
+        <v>669</v>
       </c>
       <c r="J80" t="s">
-        <v>597</v>
+        <v>670</v>
       </c>
       <c r="K80" t="s">
-        <v>598</v>
+        <v>671</v>
       </c>
       <c r="L80" t="s">
-        <v>599</v>
+        <v>672</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="O80" t="s">
         <v>53</v>
@@ -8252,21 +8830,25 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="X80" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="Y80" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>65370</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>156426</v>
+      </c>
+      <c r="C81" t="s">
+        <v>674</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
@@ -8274,7 +8856,7 @@
         <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>601</v>
+        <v>675</v>
       </c>
       <c r="G81" t="s">
         <v>46</v>
@@ -8283,22 +8865,22 @@
         <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>602</v>
+        <v>676</v>
       </c>
       <c r="J81" t="s">
-        <v>597</v>
+        <v>670</v>
       </c>
       <c r="K81" t="s">
-        <v>603</v>
+        <v>677</v>
       </c>
       <c r="L81" t="s">
-        <v>604</v>
+        <v>678</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="O81" t="s">
         <v>53</v>
@@ -8319,21 +8901,25 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="X81" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="Y81" t="s">
-        <v>605</v>
+        <v>679</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>65370</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>156427</v>
+      </c>
+      <c r="C82" t="s">
+        <v>680</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
@@ -8341,7 +8927,7 @@
         <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
@@ -8350,25 +8936,25 @@
         <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
       <c r="J82" t="s">
-        <v>608</v>
+        <v>683</v>
       </c>
       <c r="K82" t="s">
-        <v>609</v>
+        <v>684</v>
       </c>
       <c r="L82" t="s">
-        <v>610</v>
+        <v>685</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="O82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -8390,21 +8976,25 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>611</v>
+        <v>686</v>
       </c>
       <c r="X82" t="s">
-        <v>612</v>
+        <v>687</v>
       </c>
       <c r="Y82" t="s">
-        <v>613</v>
+        <v>688</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>65370</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>156428</v>
+      </c>
+      <c r="C83" t="s">
+        <v>689</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
@@ -8412,7 +9002,7 @@
         <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
       <c r="G83" t="s">
         <v>46</v>
@@ -8421,25 +9011,25 @@
         <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>615</v>
+        <v>691</v>
       </c>
       <c r="J83" t="s">
-        <v>608</v>
+        <v>683</v>
       </c>
       <c r="K83" t="s">
-        <v>616</v>
+        <v>692</v>
       </c>
       <c r="L83" t="s">
-        <v>617</v>
+        <v>693</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="O83" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8461,21 +9051,25 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>618</v>
+        <v>694</v>
       </c>
       <c r="X83" t="s">
-        <v>619</v>
+        <v>695</v>
       </c>
       <c r="Y83" t="s">
-        <v>620</v>
+        <v>696</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>65370</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>9139</v>
+      </c>
+      <c r="C84" t="s">
+        <v>697</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
@@ -8483,7 +9077,7 @@
         <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>621</v>
+        <v>698</v>
       </c>
       <c r="G84" t="s">
         <v>46</v>
@@ -8492,22 +9086,22 @@
         <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>622</v>
+        <v>699</v>
       </c>
       <c r="J84" t="s">
-        <v>623</v>
+        <v>700</v>
       </c>
       <c r="K84" t="s">
-        <v>624</v>
+        <v>701</v>
       </c>
       <c r="L84" t="s">
-        <v>625</v>
+        <v>702</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O84" t="s">
         <v>53</v>
@@ -8526,13 +9120,13 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
       <c r="X84" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="Y84" t="s">
-        <v>629</v>
+        <v>706</v>
       </c>
     </row>
     <row r="85">
@@ -8548,7 +9142,7 @@
         <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>630</v>
+        <v>707</v>
       </c>
       <c r="G85" t="s">
         <v>46</v>
@@ -8557,25 +9151,25 @@
         <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>631</v>
+        <v>708</v>
       </c>
       <c r="J85" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="K85" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="L85" t="s">
-        <v>633</v>
+        <v>710</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="O85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8597,21 +9191,25 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
       <c r="X85" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="Y85" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>65370</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>156429</v>
+      </c>
+      <c r="C86" t="s">
+        <v>712</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
@@ -8619,7 +9217,7 @@
         <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>635</v>
+        <v>713</v>
       </c>
       <c r="G86" t="s">
         <v>46</v>
@@ -8628,22 +9226,22 @@
         <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>636</v>
+        <v>714</v>
       </c>
       <c r="J86" t="s">
-        <v>637</v>
+        <v>715</v>
       </c>
       <c r="K86" t="s">
-        <v>638</v>
+        <v>716</v>
       </c>
       <c r="L86" t="s">
-        <v>639</v>
+        <v>717</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O86" t="s">
         <v>53</v>
@@ -8668,21 +9266,25 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="X86" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="Y86" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>65370</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>156430</v>
+      </c>
+      <c r="C87" t="s">
+        <v>721</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
@@ -8690,7 +9292,7 @@
         <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>643</v>
+        <v>722</v>
       </c>
       <c r="G87" t="s">
         <v>46</v>
@@ -8699,25 +9301,25 @@
         <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="J87" t="s">
-        <v>637</v>
+        <v>715</v>
       </c>
       <c r="K87" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="L87" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O87" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P87" t="s"/>
       <c r="Q87" t="s"/>
@@ -8731,15 +9333,19 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>65370</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>156431</v>
+      </c>
+      <c r="C88" t="s">
+        <v>726</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
@@ -8747,7 +9353,7 @@
         <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>647</v>
+        <v>727</v>
       </c>
       <c r="G88" t="s">
         <v>46</v>
@@ -8756,22 +9362,22 @@
         <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>648</v>
+        <v>728</v>
       </c>
       <c r="J88" t="s">
-        <v>649</v>
+        <v>729</v>
       </c>
       <c r="K88" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="L88" t="s">
-        <v>651</v>
+        <v>731</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O88" t="s">
         <v>53</v>
@@ -8796,21 +9402,25 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="X88" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="Y88" t="s">
-        <v>652</v>
+        <v>732</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>65370</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>156432</v>
+      </c>
+      <c r="C89" t="s">
+        <v>733</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
@@ -8818,7 +9428,7 @@
         <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>653</v>
+        <v>734</v>
       </c>
       <c r="G89" t="s">
         <v>46</v>
@@ -8827,22 +9437,22 @@
         <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>654</v>
+        <v>735</v>
       </c>
       <c r="J89" t="s">
-        <v>655</v>
+        <v>736</v>
       </c>
       <c r="K89" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
       <c r="L89" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O89" t="s">
         <v>53</v>
@@ -8867,21 +9477,25 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="X89" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="Y89" t="s">
-        <v>658</v>
+        <v>739</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>65370</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>17938</v>
+      </c>
+      <c r="C90" t="s">
+        <v>740</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
@@ -8889,7 +9503,7 @@
         <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>659</v>
+        <v>741</v>
       </c>
       <c r="G90" t="s">
         <v>46</v>
@@ -8898,22 +9512,22 @@
         <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="J90" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="K90" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="L90" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O90" t="s">
         <v>53</v>
@@ -8938,21 +9552,25 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="X90" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="Y90" t="s">
-        <v>666</v>
+        <v>748</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>65370</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>156433</v>
+      </c>
+      <c r="C91" t="s">
+        <v>749</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
@@ -8960,7 +9578,7 @@
         <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="G91" t="s">
         <v>46</v>
@@ -8969,25 +9587,25 @@
         <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>668</v>
+        <v>751</v>
       </c>
       <c r="J91" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="K91" t="s">
-        <v>669</v>
+        <v>752</v>
       </c>
       <c r="L91" t="s">
-        <v>670</v>
+        <v>753</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O91" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -9009,21 +9627,25 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="X91" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="Y91" t="s">
-        <v>671</v>
+        <v>754</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>65370</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>109303</v>
+      </c>
+      <c r="C92" t="s">
+        <v>215</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
@@ -9031,7 +9653,7 @@
         <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>672</v>
+        <v>755</v>
       </c>
       <c r="G92" t="s">
         <v>46</v>
@@ -9040,25 +9662,25 @@
         <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>673</v>
+        <v>756</v>
       </c>
       <c r="J92" t="s">
-        <v>674</v>
+        <v>757</v>
       </c>
       <c r="K92" t="s">
-        <v>675</v>
+        <v>758</v>
       </c>
       <c r="L92" t="s">
-        <v>676</v>
+        <v>759</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P92" t="s"/>
       <c r="Q92" t="s"/>
@@ -9070,21 +9692,25 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>677</v>
+        <v>760</v>
       </c>
       <c r="X92" t="s">
-        <v>678</v>
+        <v>761</v>
       </c>
       <c r="Y92" t="s">
-        <v>679</v>
+        <v>762</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>65370</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>156434</v>
+      </c>
+      <c r="C93" t="s">
+        <v>763</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
@@ -9092,7 +9718,7 @@
         <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>680</v>
+        <v>764</v>
       </c>
       <c r="G93" t="s">
         <v>46</v>
@@ -9101,25 +9727,25 @@
         <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>681</v>
+        <v>765</v>
       </c>
       <c r="J93" t="s">
-        <v>682</v>
+        <v>766</v>
       </c>
       <c r="K93" t="s">
-        <v>683</v>
+        <v>767</v>
       </c>
       <c r="L93" t="s">
-        <v>684</v>
+        <v>768</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O93" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -9141,21 +9767,25 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>677</v>
+        <v>760</v>
       </c>
       <c r="X93" t="s">
-        <v>678</v>
+        <v>761</v>
       </c>
       <c r="Y93" t="s">
-        <v>685</v>
+        <v>769</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>65370</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>18344</v>
+      </c>
+      <c r="C94" t="s">
+        <v>770</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
@@ -9163,7 +9793,7 @@
         <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>686</v>
+        <v>771</v>
       </c>
       <c r="G94" t="s">
         <v>46</v>
@@ -9172,25 +9802,25 @@
         <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>687</v>
+        <v>772</v>
       </c>
       <c r="J94" t="s">
-        <v>688</v>
+        <v>773</v>
       </c>
       <c r="K94" t="s">
-        <v>689</v>
+        <v>774</v>
       </c>
       <c r="L94" t="s">
-        <v>690</v>
+        <v>775</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -9212,21 +9842,25 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>691</v>
+        <v>776</v>
       </c>
       <c r="X94" t="s">
-        <v>692</v>
+        <v>777</v>
       </c>
       <c r="Y94" t="s">
-        <v>693</v>
+        <v>778</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>65370</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>156435</v>
+      </c>
+      <c r="C95" t="s">
+        <v>779</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
@@ -9234,7 +9868,7 @@
         <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>694</v>
+        <v>780</v>
       </c>
       <c r="G95" t="s">
         <v>46</v>
@@ -9243,25 +9877,25 @@
         <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>695</v>
+        <v>781</v>
       </c>
       <c r="J95" t="s">
-        <v>688</v>
+        <v>773</v>
       </c>
       <c r="K95" t="s">
-        <v>696</v>
+        <v>782</v>
       </c>
       <c r="L95" t="s">
-        <v>697</v>
+        <v>783</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9283,21 +9917,25 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>691</v>
+        <v>776</v>
       </c>
       <c r="X95" t="s">
-        <v>692</v>
+        <v>777</v>
       </c>
       <c r="Y95" t="s">
-        <v>698</v>
+        <v>784</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>65370</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>156436</v>
+      </c>
+      <c r="C96" t="s">
+        <v>785</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
@@ -9305,7 +9943,7 @@
         <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>699</v>
+        <v>786</v>
       </c>
       <c r="G96" t="s">
         <v>46</v>
@@ -9314,22 +9952,22 @@
         <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>700</v>
+        <v>787</v>
       </c>
       <c r="J96" t="s">
-        <v>688</v>
+        <v>773</v>
       </c>
       <c r="K96" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L96" t="s">
-        <v>701</v>
+        <v>788</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O96" t="s">
         <v>53</v>
@@ -9354,21 +9992,25 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>691</v>
+        <v>776</v>
       </c>
       <c r="X96" t="s">
-        <v>692</v>
+        <v>777</v>
       </c>
       <c r="Y96" t="s">
-        <v>702</v>
+        <v>789</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>65370</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>10441</v>
+      </c>
+      <c r="C97" t="s">
+        <v>790</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
@@ -9376,7 +10018,7 @@
         <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>703</v>
+        <v>791</v>
       </c>
       <c r="G97" t="s">
         <v>46</v>
@@ -9385,25 +10027,25 @@
         <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>704</v>
+        <v>792</v>
       </c>
       <c r="J97" t="s">
-        <v>705</v>
+        <v>793</v>
       </c>
       <c r="K97" t="s">
-        <v>706</v>
+        <v>794</v>
       </c>
       <c r="L97" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9425,21 +10067,25 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>691</v>
+        <v>776</v>
       </c>
       <c r="X97" t="s">
-        <v>692</v>
+        <v>777</v>
       </c>
       <c r="Y97" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>65370</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>116178</v>
+      </c>
+      <c r="C98" t="s">
+        <v>797</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
@@ -9447,7 +10093,7 @@
         <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>709</v>
+        <v>798</v>
       </c>
       <c r="G98" t="s">
         <v>46</v>
@@ -9456,25 +10102,25 @@
         <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>710</v>
+        <v>799</v>
       </c>
       <c r="J98" t="s">
-        <v>711</v>
+        <v>800</v>
       </c>
       <c r="K98" t="s">
-        <v>712</v>
+        <v>801</v>
       </c>
       <c r="L98" t="s">
-        <v>713</v>
+        <v>802</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O98" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P98" t="s"/>
       <c r="Q98" t="s"/>
@@ -9486,13 +10132,13 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>691</v>
+        <v>776</v>
       </c>
       <c r="X98" t="s">
-        <v>692</v>
+        <v>777</v>
       </c>
       <c r="Y98" t="s">
-        <v>714</v>
+        <v>803</v>
       </c>
     </row>
     <row r="99">
@@ -9508,7 +10154,7 @@
         <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>715</v>
+        <v>804</v>
       </c>
       <c r="G99" t="s">
         <v>46</v>
@@ -9517,25 +10163,25 @@
         <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>716</v>
+        <v>805</v>
       </c>
       <c r="J99" t="s">
-        <v>717</v>
+        <v>806</v>
       </c>
       <c r="K99" t="s">
-        <v>718</v>
+        <v>807</v>
       </c>
       <c r="L99" t="s">
-        <v>719</v>
+        <v>808</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O99" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9557,21 +10203,25 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>691</v>
+        <v>776</v>
       </c>
       <c r="X99" t="s">
-        <v>692</v>
+        <v>777</v>
       </c>
       <c r="Y99" t="s">
-        <v>720</v>
+        <v>809</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>65370</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>156437</v>
+      </c>
+      <c r="C100" t="s">
+        <v>810</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
@@ -9579,7 +10229,7 @@
         <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>721</v>
+        <v>811</v>
       </c>
       <c r="G100" t="s">
         <v>46</v>
@@ -9588,25 +10238,25 @@
         <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>722</v>
+        <v>812</v>
       </c>
       <c r="J100" t="s">
-        <v>723</v>
+        <v>813</v>
       </c>
       <c r="K100" t="s">
-        <v>724</v>
+        <v>814</v>
       </c>
       <c r="L100" t="s">
-        <v>725</v>
+        <v>815</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O100" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9628,21 +10278,25 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>691</v>
+        <v>776</v>
       </c>
       <c r="X100" t="s">
-        <v>692</v>
+        <v>777</v>
       </c>
       <c r="Y100" t="s">
-        <v>726</v>
+        <v>816</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>65370</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>156438</v>
+      </c>
+      <c r="C101" t="s">
+        <v>817</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
@@ -9650,7 +10304,7 @@
         <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>727</v>
+        <v>818</v>
       </c>
       <c r="G101" t="s">
         <v>46</v>
@@ -9659,22 +10313,22 @@
         <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>728</v>
+        <v>819</v>
       </c>
       <c r="J101" t="s">
-        <v>729</v>
+        <v>820</v>
       </c>
       <c r="K101" t="s">
-        <v>730</v>
+        <v>821</v>
       </c>
       <c r="L101" t="s">
-        <v>731</v>
+        <v>822</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O101" t="s">
         <v>53</v>
@@ -9689,13 +10343,13 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>732</v>
+        <v>823</v>
       </c>
       <c r="X101" t="s">
-        <v>733</v>
+        <v>824</v>
       </c>
       <c r="Y101" t="s">
-        <v>734</v>
+        <v>825</v>
       </c>
     </row>
     <row r="102">
@@ -9711,7 +10365,7 @@
         <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>735</v>
+        <v>826</v>
       </c>
       <c r="G102" t="s">
         <v>46</v>
@@ -9720,25 +10374,25 @@
         <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>736</v>
+        <v>827</v>
       </c>
       <c r="J102" t="s">
-        <v>737</v>
+        <v>828</v>
       </c>
       <c r="K102" t="s">
-        <v>738</v>
+        <v>829</v>
       </c>
       <c r="L102" t="s">
-        <v>739</v>
+        <v>830</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O102" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -9758,21 +10412,25 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>740</v>
+        <v>831</v>
       </c>
       <c r="X102" t="s">
-        <v>741</v>
+        <v>832</v>
       </c>
       <c r="Y102" t="s">
-        <v>742</v>
+        <v>833</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>65370</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>156439</v>
+      </c>
+      <c r="C103" t="s">
+        <v>834</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
@@ -9780,7 +10438,7 @@
         <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>743</v>
+        <v>835</v>
       </c>
       <c r="G103" t="s">
         <v>46</v>
@@ -9789,22 +10447,22 @@
         <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>744</v>
+        <v>836</v>
       </c>
       <c r="J103" t="s">
-        <v>745</v>
+        <v>837</v>
       </c>
       <c r="K103" t="s">
-        <v>746</v>
+        <v>838</v>
       </c>
       <c r="L103" t="s">
-        <v>747</v>
+        <v>839</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="O103" t="s">
         <v>53</v>
@@ -9829,21 +10487,25 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>748</v>
+        <v>840</v>
       </c>
       <c r="X103" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="Y103" t="s">
-        <v>750</v>
+        <v>842</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>65370</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>156440</v>
+      </c>
+      <c r="C104" t="s">
+        <v>843</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
@@ -9851,7 +10513,7 @@
         <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>751</v>
+        <v>844</v>
       </c>
       <c r="G104" t="s">
         <v>46</v>
@@ -9860,25 +10522,25 @@
         <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>752</v>
+        <v>845</v>
       </c>
       <c r="J104" t="s">
-        <v>753</v>
+        <v>846</v>
       </c>
       <c r="K104" t="s">
-        <v>754</v>
+        <v>847</v>
       </c>
       <c r="L104" t="s">
-        <v>755</v>
+        <v>848</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>756</v>
+        <v>849</v>
       </c>
       <c r="O104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9900,21 +10562,25 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>748</v>
+        <v>840</v>
       </c>
       <c r="X104" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="Y104" t="s">
-        <v>757</v>
+        <v>850</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>65370</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>156441</v>
+      </c>
+      <c r="C105" t="s">
+        <v>851</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
@@ -9922,7 +10588,7 @@
         <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>758</v>
+        <v>852</v>
       </c>
       <c r="G105" t="s">
         <v>46</v>
@@ -9931,25 +10597,25 @@
         <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>759</v>
+        <v>853</v>
       </c>
       <c r="J105" t="s">
-        <v>760</v>
+        <v>854</v>
       </c>
       <c r="K105" t="s">
-        <v>761</v>
+        <v>855</v>
       </c>
       <c r="L105" t="s">
-        <v>762</v>
+        <v>856</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>756</v>
+        <v>849</v>
       </c>
       <c r="O105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P105" t="s"/>
       <c r="Q105" t="s"/>
@@ -9965,13 +10631,13 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>748</v>
+        <v>840</v>
       </c>
       <c r="X105" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="Y105" t="s">
-        <v>763</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
